--- a/biology/Neurosciences/Mario_Beauregard/Mario_Beauregard.xlsx
+++ b/biology/Neurosciences/Mario_Beauregard/Mario_Beauregard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mario Beauregard est un spécialiste canadien en neurobiologie et auteur né en 1962.
-Les recherches qu'il mène s'orientent vers une psychologie post-matérialiste[1].
+Les recherches qu'il mène s'orientent vers une psychologie post-matérialiste.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mario Beauregard a complété des études postdoctorales à l'Université du Texas et au Montreal Neurological Institute de l'Université McGill.
 Il est chercheur en neuroscience, agrégé du département de psychologie à l’Université de Montréal et titulaire d’un doctorat en neurobiologie de l’Université du Texas.
@@ -547,10 +561,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mario Beauregard est auteur de plus de cent publications en neurosciences, psychologie et psychiatrie[2].
-En 2006, Mario Beauregard mène une étude où il étudie le cerveau des carmélites revivant des expériences mystiques par Imagerie par résonance magnétique fonctionnelle (IRMf) et dont l'objectif principal est d'identifier les corrélats neuronaux d'une expérience mystique[3]. Il ne parvient pas à localiser un centre de médiation de ces expériences, mais, au contraire que de multiples zones du cerveau sont impliquées[4]. L'étude est reçue avec scepticisme par la communauté scientifique qui l'accuse d'être trop réductioniste, la méthode est contestée et ce genre d'expérience avait déjà été menée sans aucun résultat probant[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mario Beauregard est auteur de plus de cent publications en neurosciences, psychologie et psychiatrie.
+En 2006, Mario Beauregard mène une étude où il étudie le cerveau des carmélites revivant des expériences mystiques par Imagerie par résonance magnétique fonctionnelle (IRMf) et dont l'objectif principal est d'identifier les corrélats neuronaux d'une expérience mystique. Il ne parvient pas à localiser un centre de médiation de ces expériences, mais, au contraire que de multiples zones du cerveau sont impliquées. L'étude est reçue avec scepticisme par la communauté scientifique qui l'accuse d'être trop réductioniste, la méthode est contestée et ce genre d'expérience avait déjà été menée sans aucun résultat probant.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Manifeste</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il collabore avec d'autres scientifiques à l'élaboration d'un manifeste post-matérialiste. Cela s'est concrétisé lors d'un sommet international qui s'est tenu à Tucson en février 2014[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il collabore avec d'autres scientifiques à l'élaboration d'un manifeste post-matérialiste. Cela s'est concrétisé lors d'un sommet international qui s'est tenu à Tucson en février 2014.
 </t>
         </is>
       </c>
